--- a/app/Licenciatura_em_Contabilidade_e_Financas.xlsx
+++ b/app/Licenciatura_em_Contabilidade_e_Financas.xlsx
@@ -30,42 +30,37 @@
     <sheet name="20150973" sheetId="20" r:id="rId23"/>
     <sheet name="20150971" sheetId="21" r:id="rId24"/>
     <sheet name="20150981" sheetId="22" r:id="rId25"/>
-    <sheet name="20154400" sheetId="23" r:id="rId26"/>
-    <sheet name="20154403" sheetId="24" r:id="rId27"/>
-    <sheet name="20150975" sheetId="25" r:id="rId28"/>
-    <sheet name="20150978" sheetId="26" r:id="rId29"/>
-    <sheet name="20151005" sheetId="27" r:id="rId30"/>
-    <sheet name="20151000" sheetId="28" r:id="rId31"/>
-    <sheet name="20151008" sheetId="29" r:id="rId32"/>
-    <sheet name="20151007" sheetId="30" r:id="rId33"/>
-    <sheet name="20150974" sheetId="31" r:id="rId34"/>
-    <sheet name="20150968" sheetId="32" r:id="rId35"/>
-    <sheet name="20150977" sheetId="33" r:id="rId36"/>
-    <sheet name="20150991" sheetId="34" r:id="rId37"/>
-    <sheet name="20150997" sheetId="35" r:id="rId38"/>
-    <sheet name="20150969" sheetId="36" r:id="rId39"/>
-    <sheet name="20150989" sheetId="37" r:id="rId40"/>
-    <sheet name="20154792" sheetId="38" r:id="rId41"/>
-    <sheet name="20154793" sheetId="39" r:id="rId42"/>
-    <sheet name="20151003" sheetId="40" r:id="rId43"/>
-    <sheet name="20150990" sheetId="41" r:id="rId44"/>
-    <sheet name="20150976" sheetId="42" r:id="rId45"/>
-    <sheet name="20151010" sheetId="43" r:id="rId46"/>
-    <sheet name="20150980" sheetId="44" r:id="rId47"/>
-    <sheet name="20150972" sheetId="45" r:id="rId48"/>
-    <sheet name="20150995" sheetId="46" r:id="rId49"/>
-    <sheet name="20150967" sheetId="47" r:id="rId50"/>
-    <sheet name="20151011" sheetId="48" r:id="rId51"/>
-    <sheet name="20150987" sheetId="49" r:id="rId52"/>
-    <sheet name="20150986" sheetId="50" r:id="rId53"/>
-    <sheet name="20150999" sheetId="51" r:id="rId54"/>
-    <sheet name="20150996" sheetId="52" r:id="rId55"/>
-    <sheet name="20150966" sheetId="53" r:id="rId56"/>
-    <sheet name="20150979" sheetId="54" r:id="rId57"/>
-    <sheet name="20151009" sheetId="55" r:id="rId58"/>
-    <sheet name="20154402" sheetId="56" r:id="rId59"/>
-    <sheet name="Sheet2" sheetId="57" r:id="rId60"/>
-    <sheet name="Sheet3" sheetId="58" r:id="rId61"/>
+    <sheet name="20150975" sheetId="23" r:id="rId26"/>
+    <sheet name="20150978" sheetId="24" r:id="rId27"/>
+    <sheet name="20151005" sheetId="25" r:id="rId28"/>
+    <sheet name="20151000" sheetId="26" r:id="rId29"/>
+    <sheet name="20151008" sheetId="27" r:id="rId30"/>
+    <sheet name="20151007" sheetId="28" r:id="rId31"/>
+    <sheet name="20150974" sheetId="29" r:id="rId32"/>
+    <sheet name="20150968" sheetId="30" r:id="rId33"/>
+    <sheet name="20150977" sheetId="31" r:id="rId34"/>
+    <sheet name="20150991" sheetId="32" r:id="rId35"/>
+    <sheet name="20150997" sheetId="33" r:id="rId36"/>
+    <sheet name="20150969" sheetId="34" r:id="rId37"/>
+    <sheet name="20150989" sheetId="35" r:id="rId38"/>
+    <sheet name="20151003" sheetId="36" r:id="rId39"/>
+    <sheet name="20150990" sheetId="37" r:id="rId40"/>
+    <sheet name="20150976" sheetId="38" r:id="rId41"/>
+    <sheet name="20151010" sheetId="39" r:id="rId42"/>
+    <sheet name="20150980" sheetId="40" r:id="rId43"/>
+    <sheet name="20150972" sheetId="41" r:id="rId44"/>
+    <sheet name="20150995" sheetId="42" r:id="rId45"/>
+    <sheet name="20150967" sheetId="43" r:id="rId46"/>
+    <sheet name="20151011" sheetId="44" r:id="rId47"/>
+    <sheet name="20150987" sheetId="45" r:id="rId48"/>
+    <sheet name="20150986" sheetId="46" r:id="rId49"/>
+    <sheet name="20150999" sheetId="47" r:id="rId50"/>
+    <sheet name="20150996" sheetId="48" r:id="rId51"/>
+    <sheet name="20150966" sheetId="49" r:id="rId52"/>
+    <sheet name="20150979" sheetId="50" r:id="rId53"/>
+    <sheet name="20151009" sheetId="51" r:id="rId54"/>
+    <sheet name="Sheet2" sheetId="52" r:id="rId55"/>
+    <sheet name="Sheet3" sheetId="53" r:id="rId56"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
@@ -73,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="417">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -222,9 +217,6 @@
     <t>Rosa Maria JoÃo LuÍs</t>
   </si>
   <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -261,9 +253,6 @@
     <t xml:space="preserve">Cristina Fernando Zita </t>
   </si>
   <si>
-    <t>Distrito Municipal Kamavota</t>
-  </si>
-  <si>
     <t>Feminino</t>
   </si>
   <si>
@@ -291,9 +280,6 @@
     <t>Cristina Matias</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamubukwana</t>
-  </si>
-  <si>
     <t>110102453321A</t>
   </si>
   <si>
@@ -318,9 +304,6 @@
     <t xml:space="preserve">Constancia Mariquele </t>
   </si>
   <si>
-    <t>Cidade de Xai-Xai</t>
-  </si>
-  <si>
     <t>090101629844I</t>
   </si>
   <si>
@@ -378,9 +361,6 @@
     <t>Aida JosÉ Sitoe</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamaxaquene</t>
-  </si>
-  <si>
     <t>110100466635F</t>
   </si>
   <si>
@@ -540,9 +520,6 @@
     <t>Paucilda Robao Chambal</t>
   </si>
   <si>
-    <t>Distrito de Mavalane</t>
-  </si>
-  <si>
     <t>Casado</t>
   </si>
   <si>
@@ -576,9 +553,6 @@
     <t>Marta Jossias Tivane</t>
   </si>
   <si>
-    <t>Distrito de Marracuene</t>
-  </si>
-  <si>
     <t>110100164290B</t>
   </si>
   <si>
@@ -648,9 +622,6 @@
     <t>Ines Alfredo Simbine</t>
   </si>
   <si>
-    <t>Cidade de Inhambane</t>
-  </si>
-  <si>
     <t>110500283789P</t>
   </si>
   <si>
@@ -702,18 +673,6 @@
     <t>+258847611191</t>
   </si>
   <si>
-    <t>Mangue</t>
-  </si>
-  <si>
-    <t>Isaias Estevão</t>
-  </si>
-  <si>
-    <t>Mananze</t>
-  </si>
-  <si>
-    <t>Elsa Estevão</t>
-  </si>
-  <si>
     <t>Mahache</t>
   </si>
   <si>
@@ -750,9 +709,6 @@
     <t>Luisa Wilson</t>
   </si>
   <si>
-    <t>Cidade de Chimoio</t>
-  </si>
-  <si>
     <t>060101915055I</t>
   </si>
   <si>
@@ -927,9 +883,6 @@
     <t>Amina Latibo</t>
   </si>
   <si>
-    <t>Cidade de Quelimane</t>
-  </si>
-  <si>
     <t>04101367178P</t>
   </si>
   <si>
@@ -1008,18 +961,9 @@
     <t>Escola Francisco Manyanga</t>
   </si>
   <si>
-    <t>Cuinica</t>
-  </si>
-  <si>
-    <t>Virgínia Afonso</t>
-  </si>
-  <si>
     <t>Cossa</t>
   </si>
   <si>
-    <t>Linda Yara Horácio</t>
-  </si>
-  <si>
     <t>Julieta Jacinto</t>
   </si>
   <si>
@@ -1053,9 +997,6 @@
     <t>Celeste Francisco Mucocana</t>
   </si>
   <si>
-    <t>Distrito Municipal de Nlhamankulu</t>
-  </si>
-  <si>
     <t>100500775223M</t>
   </si>
   <si>
@@ -1104,9 +1045,6 @@
     <t>Dora Chichava</t>
   </si>
   <si>
-    <t>Distrito de Boane</t>
-  </si>
-  <si>
     <t>100102495525I</t>
   </si>
   <si>
@@ -1212,9 +1150,6 @@
     <t>Ana Maria Amone</t>
   </si>
   <si>
-    <t>Cidade de Maxixe</t>
-  </si>
-  <si>
     <t>080100084440Q</t>
   </si>
   <si>
@@ -1263,9 +1198,6 @@
     <t>Angelina SaÚde Nampalala</t>
   </si>
   <si>
-    <t>Distrito de Mocuba</t>
-  </si>
-  <si>
     <t>041102636068A</t>
   </si>
   <si>
@@ -1332,9 +1264,6 @@
     <t>Safinia Nordine Abibo</t>
   </si>
   <si>
-    <t>Cidade de Nampula</t>
-  </si>
-  <si>
     <t>030104269525M</t>
   </si>
   <si>
@@ -1359,9 +1288,6 @@
     <t>Veronica Joao Frutuna</t>
   </si>
   <si>
-    <t>Cidade de Beira</t>
-  </si>
-  <si>
     <t>070104799105A</t>
   </si>
   <si>
@@ -1393,12 +1319,6 @@
   </si>
   <si>
     <t>Outra - Prov Zambezia</t>
-  </si>
-  <si>
-    <t>Abibo</t>
-  </si>
-  <si>
-    <t>Abibo Juma</t>
   </si>
 </sst>
 </file>
@@ -2658,7 +2578,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2674,7 +2594,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2690,7 +2610,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2706,7 +2626,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2722,7 +2642,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2737,9 +2657,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2747,7 +2665,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2758,7 +2676,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2767,7 +2685,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2779,7 +2697,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2787,7 +2705,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2883,7 +2801,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2926,7 +2844,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3253,7 +3171,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3269,7 +3187,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3285,7 +3203,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3301,7 +3219,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3317,7 +3235,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3332,9 +3250,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>72</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3342,7 +3258,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3353,7 +3269,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3362,7 +3278,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3374,7 +3290,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3382,7 +3298,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3478,7 +3394,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3521,7 +3437,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3848,7 +3764,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3864,7 +3780,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3880,7 +3796,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3896,7 +3812,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3912,7 +3828,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3927,9 +3843,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3937,7 +3851,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3948,7 +3862,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3957,7 +3871,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3969,7 +3883,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3977,7 +3891,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4073,7 +3987,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4116,7 +4030,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4443,7 +4357,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4459,7 +4373,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4475,7 +4389,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4491,7 +4405,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4507,7 +4421,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4522,9 +4436,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4532,7 +4444,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4543,7 +4455,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4552,7 +4464,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4564,7 +4476,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4572,7 +4484,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4668,7 +4580,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4711,7 +4623,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5038,7 +4950,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5054,7 +4966,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5070,7 +4982,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5086,7 +4998,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5102,7 +5014,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5117,9 +5029,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5127,7 +5037,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5138,7 +5048,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5147,7 +5057,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5159,7 +5069,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5167,7 +5077,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5263,7 +5173,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5306,7 +5216,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5633,7 +5543,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5649,7 +5559,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5665,7 +5575,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5681,7 +5591,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5697,7 +5607,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5712,9 +5622,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>155</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5722,7 +5630,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5733,7 +5641,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5742,7 +5650,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5754,7 +5662,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5762,7 +5670,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5858,7 +5766,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5901,7 +5809,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6228,7 +6136,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6244,7 +6152,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6435,7 +6343,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6801,7 +6709,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6817,7 +6725,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6833,7 +6741,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6849,7 +6757,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6865,7 +6773,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6880,9 +6788,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>167</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6890,7 +6796,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6901,7 +6807,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6910,7 +6816,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6922,7 +6828,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6930,7 +6836,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7026,7 +6932,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7069,7 +6975,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7396,7 +7302,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7412,7 +7318,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7428,7 +7334,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7444,7 +7350,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7460,7 +7366,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7475,9 +7381,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>155</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7485,7 +7389,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7496,7 +7400,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7505,7 +7409,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7517,7 +7421,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7525,7 +7429,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7621,7 +7525,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7664,7 +7568,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7991,7 +7895,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8007,7 +7911,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8023,7 +7927,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -8039,7 +7943,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -8055,7 +7959,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -8070,9 +7974,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8080,7 +7982,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8091,7 +7993,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8100,7 +8002,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8112,7 +8014,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8216,7 +8118,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8259,7 +8161,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8665,9 +8567,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8675,7 +8575,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8686,7 +8586,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8695,7 +8595,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8707,7 +8607,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8715,7 +8615,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8811,7 +8711,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8854,7 +8754,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9181,7 +9081,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9197,7 +9097,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9213,7 +9113,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9229,7 +9129,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9245,7 +9145,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9260,9 +9160,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>191</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9270,7 +9168,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9281,7 +9179,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9290,7 +9188,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9302,7 +9200,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9310,7 +9208,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9406,7 +9304,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9449,7 +9347,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9776,7 +9674,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9792,7 +9690,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9808,7 +9706,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9824,7 +9722,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9840,7 +9738,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9855,9 +9753,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>155</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9865,7 +9761,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9876,7 +9772,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9885,7 +9781,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9897,7 +9793,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9905,7 +9801,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10001,7 +9897,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10044,7 +9940,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10371,7 +10267,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10387,7 +10283,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10403,7 +10299,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10419,7 +10315,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10435,7 +10331,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10450,9 +10346,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10460,7 +10354,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10471,7 +10365,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10480,7 +10374,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10492,7 +10386,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10500,7 +10394,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10596,7 +10490,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10639,7 +10533,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10890,7 +10784,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -10940,7 +10836,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154400</v>
+        <v>20150975</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -10964,7 +10860,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10980,7 +10876,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10995,7 +10891,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>203</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -11009,7 +10907,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>204</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -11023,7 +10923,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>205</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -11044,7 +10946,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>61</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -11053,14 +10957,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -11070,13 +10978,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>206</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -11171,7 +11083,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>87</v>
+        <v>207</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11197,7 +11109,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2012</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -11211,7 +11125,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>178</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -11461,7 +11377,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -11511,7 +11429,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154403</v>
+        <v>20150978</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -11535,7 +11453,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11551,7 +11469,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11566,7 +11484,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>210</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -11580,7 +11500,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>211</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -11594,7 +11516,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>212</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -11615,7 +11539,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -11624,14 +11550,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -11641,13 +11571,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>213</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -11742,7 +11676,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>87</v>
+        <v>214</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11768,7 +11702,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2014</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -11782,7 +11718,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>215</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -12084,7 +12022,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150975</v>
+        <v>20151005</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -12108,7 +12046,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12124,7 +12062,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12140,7 +12078,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12156,7 +12094,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12172,7 +12110,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12187,9 +12125,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>72</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12197,7 +12133,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12208,7 +12144,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12217,7 +12153,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12229,7 +12165,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12237,7 +12173,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12333,7 +12269,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12360,7 +12296,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -12376,7 +12312,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>185</v>
+        <v>99</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12679,7 +12615,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150978</v>
+        <v>20151000</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -12703,7 +12639,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12719,7 +12655,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12735,7 +12671,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12751,7 +12687,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12767,7 +12703,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12782,9 +12718,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>225</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12792,7 +12726,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12803,7 +12737,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12812,7 +12746,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12824,7 +12758,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12832,7 +12766,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12928,7 +12862,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12955,7 +12889,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -12971,7 +12905,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>228</v>
+        <v>178</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13274,7 +13208,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151005</v>
+        <v>20151008</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -13298,7 +13232,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13314,7 +13248,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13330,7 +13264,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13346,7 +13280,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13362,7 +13296,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13377,9 +13311,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>72</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13387,7 +13319,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13398,7 +13330,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13407,7 +13339,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13419,7 +13351,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13427,7 +13359,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13523,7 +13455,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13550,7 +13482,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -13566,7 +13498,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>104</v>
+        <v>170</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13869,7 +13801,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151000</v>
+        <v>20151007</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -13893,7 +13825,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13909,7 +13841,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13925,7 +13857,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13941,7 +13873,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13972,9 +13904,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>155</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13982,7 +13912,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13993,7 +13923,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14002,7 +13932,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14014,7 +13944,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14145,7 +14075,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -14161,7 +14091,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>185</v>
+        <v>243</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14464,7 +14394,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151008</v>
+        <v>20150974</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -14488,7 +14418,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14504,7 +14434,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14520,7 +14450,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14536,7 +14466,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14552,7 +14482,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14567,9 +14497,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>155</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14577,7 +14505,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14588,7 +14516,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14597,7 +14525,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14609,7 +14537,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14617,7 +14545,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14713,7 +14641,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14740,7 +14668,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -14756,7 +14684,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>177</v>
+        <v>251</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15083,7 +15011,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15099,7 +15027,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15115,7 +15043,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15131,7 +15059,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15147,7 +15075,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15162,9 +15090,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15172,7 +15098,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15183,7 +15109,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15192,7 +15118,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15204,7 +15130,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15212,7 +15138,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15308,7 +15234,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15351,7 +15277,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15654,7 +15580,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151007</v>
+        <v>20150968</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -15678,7 +15604,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15694,7 +15620,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15710,7 +15636,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15726,7 +15652,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15742,7 +15668,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15757,9 +15683,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>155</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15767,7 +15691,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15778,7 +15702,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15787,7 +15711,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15799,7 +15723,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15807,7 +15731,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15903,7 +15827,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15930,7 +15854,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -15946,7 +15870,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16249,7 +16173,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150974</v>
+        <v>20150977</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -16273,7 +16197,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -16289,7 +16213,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -16305,7 +16229,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -16321,7 +16245,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -16337,7 +16261,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -16352,9 +16276,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>101</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -16362,7 +16284,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -16373,7 +16295,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16382,7 +16304,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16394,7 +16316,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16402,7 +16324,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16498,7 +16420,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16541,7 +16463,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>264</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16844,7 +16766,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150968</v>
+        <v>20150991</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -16868,7 +16790,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -16884,7 +16806,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -16900,7 +16822,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -16916,7 +16838,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -16932,7 +16854,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -16947,9 +16869,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>155</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -16957,7 +16877,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -16968,7 +16888,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16977,7 +16897,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16989,7 +16909,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16997,7 +16917,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17093,7 +17013,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17136,7 +17056,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>66</v>
+        <v>273</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17439,7 +17359,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150977</v>
+        <v>20150997</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -17463,7 +17383,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17479,7 +17399,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17495,7 +17415,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17511,7 +17431,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17527,7 +17447,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17542,9 +17462,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>72</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17552,7 +17470,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17563,7 +17481,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17572,7 +17490,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17584,7 +17502,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17592,7 +17510,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17688,7 +17606,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17715,7 +17633,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -17731,7 +17649,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>75</v>
+        <v>281</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18034,7 +17952,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150991</v>
+        <v>20150969</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -18058,7 +17976,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18074,7 +17992,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18090,7 +18008,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18106,7 +18024,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18122,7 +18040,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18137,9 +18055,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>284</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18147,7 +18063,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18158,7 +18074,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18167,7 +18083,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18179,7 +18095,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18187,7 +18103,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -18283,7 +18199,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -18310,7 +18226,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -18326,7 +18242,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>287</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18629,7 +18545,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150997</v>
+        <v>20150989</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -18653,7 +18569,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18669,7 +18585,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18685,7 +18601,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18701,7 +18617,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18717,7 +18633,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18732,9 +18648,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>101</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18742,7 +18656,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18753,7 +18667,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18762,7 +18676,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18774,7 +18688,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18782,7 +18696,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -18878,7 +18792,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -18905,7 +18819,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -18921,7 +18835,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -19224,7 +19138,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150969</v>
+        <v>20151003</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -19248,7 +19162,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -19264,7 +19178,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -19280,7 +19194,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -19296,7 +19210,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -19312,7 +19226,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -19327,9 +19241,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>101</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -19337,7 +19249,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -19348,7 +19260,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -19357,7 +19269,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19369,7 +19281,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19377,7 +19289,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19473,7 +19385,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19500,7 +19412,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -19516,7 +19428,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>170</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -19819,7 +19731,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150989</v>
+        <v>20150990</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -19843,7 +19755,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -19859,7 +19771,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -19875,7 +19787,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -19891,7 +19803,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -19907,7 +19819,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -19922,9 +19834,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -19932,7 +19842,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -19943,7 +19853,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -19952,7 +19862,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19964,7 +19874,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19972,7 +19882,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -20068,7 +19978,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -20111,7 +20021,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -20362,7 +20272,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -20412,7 +20324,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154792</v>
+        <v>20150976</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -20436,7 +20348,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -20452,7 +20364,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -20467,7 +20379,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>314</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -20481,7 +20395,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>315</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -20495,7 +20411,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>316</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -20516,7 +20434,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -20525,14 +20445,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -20542,13 +20466,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>317</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -20643,7 +20571,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>87</v>
+        <v>318</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -20669,7 +20597,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2013</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -20683,7 +20613,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>319</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -20933,7 +20865,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -20983,7 +20917,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154793</v>
+        <v>20151010</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -21007,7 +20941,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -21023,7 +20957,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -21038,7 +20972,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>322</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -21052,7 +20988,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>323</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -21066,7 +21004,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>324</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -21087,7 +21027,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>61</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -21096,14 +21038,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -21113,13 +21059,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>325</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -21214,7 +21164,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>87</v>
+        <v>326</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -21240,7 +21190,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2014</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -21254,7 +21206,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>80</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -21580,7 +21534,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -21596,7 +21550,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -21612,7 +21566,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -21628,7 +21582,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -21644,7 +21598,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -21659,9 +21613,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>72</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -21669,7 +21621,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -21680,7 +21632,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -21689,7 +21641,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -21701,7 +21653,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -21709,7 +21661,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -21805,7 +21757,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -21848,7 +21800,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -22151,7 +22103,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151003</v>
+        <v>20150980</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -22175,7 +22127,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -22191,7 +22143,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -22207,7 +22159,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -22223,7 +22175,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -22239,7 +22191,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -22254,9 +22206,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>155</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -22264,7 +22214,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -22275,7 +22225,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -22284,7 +22234,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -22296,7 +22246,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -22304,7 +22254,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -22400,7 +22350,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -22427,7 +22377,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -22443,7 +22393,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>177</v>
+        <v>107</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -22746,7 +22696,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150990</v>
+        <v>20150972</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -22770,7 +22720,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -22786,7 +22736,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -22802,7 +22752,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -22818,7 +22768,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -22834,7 +22784,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -22849,9 +22799,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>326</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -22859,7 +22807,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -22870,7 +22818,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -22879,7 +22827,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -22891,7 +22839,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -22899,7 +22847,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -22995,7 +22943,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -23022,7 +22970,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -23038,7 +22986,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>329</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -23341,7 +23289,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150976</v>
+        <v>20150995</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -23365,7 +23313,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -23381,7 +23329,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -23397,7 +23345,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -23413,7 +23361,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -23429,7 +23377,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -23444,9 +23392,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>155</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -23454,7 +23400,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -23465,7 +23411,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -23474,7 +23420,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -23486,7 +23432,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -23494,7 +23440,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -23590,7 +23536,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -23617,7 +23563,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -23633,7 +23579,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>337</v>
+        <v>296</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -23936,7 +23882,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151010</v>
+        <v>20150967</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -23960,7 +23906,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -23976,7 +23922,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -23992,7 +23938,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -24008,7 +23954,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -24024,7 +23970,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -24039,9 +23985,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>343</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -24049,7 +23993,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -24060,7 +24004,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -24069,7 +24013,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -24081,7 +24025,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -24089,7 +24033,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -24185,7 +24129,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -24212,7 +24156,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -24228,7 +24172,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -24531,7 +24475,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150980</v>
+        <v>20151011</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -24555,7 +24499,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -24571,7 +24515,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -24587,7 +24531,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -24603,7 +24547,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -24619,7 +24563,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -24634,9 +24578,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -24644,7 +24586,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -24655,7 +24597,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -24664,7 +24606,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -24676,7 +24618,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -24684,7 +24626,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -24780,7 +24722,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -24823,7 +24765,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>112</v>
+        <v>362</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -25126,7 +25068,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150972</v>
+        <v>20150987</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -25150,7 +25092,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -25166,7 +25108,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -25182,7 +25124,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -25198,7 +25140,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -25214,7 +25156,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -25229,9 +25171,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -25239,7 +25179,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -25250,7 +25190,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -25259,7 +25199,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -25271,7 +25211,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -25279,7 +25219,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -25375,7 +25315,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -25418,7 +25358,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>75</v>
+        <v>370</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -25721,7 +25661,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150995</v>
+        <v>20150986</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -25745,7 +25685,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -25761,7 +25701,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -25777,7 +25717,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -25793,7 +25733,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -25809,7 +25749,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -25824,9 +25764,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -25834,7 +25772,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -25845,7 +25783,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -25854,7 +25792,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -25866,7 +25804,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -25874,7 +25812,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -25970,7 +25908,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -25997,7 +25935,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -26013,7 +25951,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>310</v>
+        <v>378</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -26316,7 +26254,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150967</v>
+        <v>20150999</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -26340,7 +26278,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -26356,7 +26294,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -26372,7 +26310,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -26388,7 +26326,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -26404,7 +26342,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -26419,9 +26357,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>72</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -26429,7 +26365,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -26440,7 +26376,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -26449,7 +26385,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -26461,7 +26397,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -26469,7 +26405,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -26565,7 +26501,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -26592,7 +26528,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -26608,7 +26544,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -26911,7 +26847,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20151011</v>
+        <v>20150996</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -26935,7 +26871,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -26951,7 +26887,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -26967,7 +26903,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -26983,7 +26919,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -26999,7 +26935,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -27014,9 +26950,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>379</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -27024,7 +26958,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -27035,7 +26969,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -27044,7 +26978,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -27056,7 +26990,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -27064,7 +26998,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -27160,7 +27094,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -27203,7 +27137,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>382</v>
+        <v>311</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -27506,7 +27440,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150987</v>
+        <v>20150966</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -27530,7 +27464,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -27546,7 +27480,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -27562,7 +27496,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -27578,7 +27512,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -27594,7 +27528,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -27609,9 +27543,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -27619,7 +27551,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -27630,7 +27562,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -27639,7 +27571,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -27651,7 +27583,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -27659,7 +27591,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -27755,7 +27687,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -27798,7 +27730,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -28125,7 +28057,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -28141,7 +28073,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -28157,7 +28089,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -28173,7 +28105,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -28189,7 +28121,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -28204,9 +28136,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -28214,7 +28144,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -28225,7 +28155,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -28234,7 +28164,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -28246,7 +28176,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -28254,7 +28184,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -28350,7 +28280,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -28393,7 +28323,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -28696,7 +28626,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150986</v>
+        <v>20150979</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -28720,7 +28650,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -28736,7 +28666,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -28752,7 +28682,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -28768,7 +28698,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -28784,7 +28714,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -28799,9 +28729,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>396</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -28809,7 +28737,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -28820,7 +28748,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -28829,7 +28757,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -28841,7 +28769,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -28849,7 +28777,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -28945,7 +28873,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -28972,7 +28900,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -28988,7 +28916,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -29291,7 +29219,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150999</v>
+        <v>20151009</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -29315,7 +29243,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -29331,7 +29259,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -29347,7 +29275,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -29363,7 +29291,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -29379,7 +29307,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -29394,9 +29322,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>326</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -29404,7 +29330,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -29415,7 +29341,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -29424,7 +29350,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -29436,7 +29362,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -29444,7 +29370,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -29540,7 +29466,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -29567,7 +29493,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -29583,7 +29509,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>95</v>
+        <v>416</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -29786,2957 +29712,6 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20150996</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>407</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>408</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>409</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>410</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>411</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>412</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>413</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2013</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>329</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20150966</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>414</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>415</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>417</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>418</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>419</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>420</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>421</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2014</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20150979</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>423</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>424</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>425</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>426</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>427</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>429</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>430</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2012</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>431</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20151009</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>432</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>433</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>434</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>435</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>436</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>437</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>438</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2013</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>439</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20154402</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>440</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>441</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
@@ -32760,7 +29735,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -32917,7 +29892,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -32933,7 +29908,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -33124,7 +30099,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -33490,7 +30465,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -33506,7 +30481,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -33522,7 +30497,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -33538,7 +30513,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -33554,7 +30529,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -33569,9 +30544,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -33579,7 +30552,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -33590,7 +30563,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -33599,7 +30572,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -33611,7 +30584,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -33619,7 +30592,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -33715,7 +30688,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -33758,7 +30731,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -34085,7 +31058,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -34101,7 +31074,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -34117,7 +31090,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -34133,7 +31106,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -34149,7 +31122,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -34164,9 +31137,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>101</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -34174,7 +31145,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -34185,7 +31156,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -34194,7 +31165,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -34206,7 +31177,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -34214,7 +31185,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -34310,7 +31281,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -34353,7 +31324,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -34680,7 +31651,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -34696,7 +31667,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -34712,7 +31683,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -34728,7 +31699,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -34744,7 +31715,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -34759,9 +31730,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -34769,7 +31738,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -34780,7 +31749,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -34789,7 +31758,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -34801,7 +31770,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -34809,7 +31778,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -34905,7 +31874,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -34948,7 +31917,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
